--- a/Resources/DataDetails.xlsx
+++ b/Resources/DataDetails.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achyut Shrestha\Documents\Python\UoT\Project\KAAA\campaign-finance-versus-election-results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s4601073\OneDrive - The Bank of Nova Scotia\Documents\Python\UofT\KAAA\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4159ACE6-8764-433B-BB1B-309E3B92277E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{85214B95-0413-4F78-B028-06E370EEC7E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{F94A0C5B-1C4A-4E24-8FE7-A486FD735894}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataDetails" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -577,7 +583,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -605,8 +611,14 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -631,6 +643,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -645,7 +663,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -665,13 +683,25 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -957,18 +987,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="32.21875" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" customWidth="1"/>
-    <col min="5" max="5" width="22.77734375" customWidth="1"/>
-    <col min="6" max="6" width="43.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="43.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1065,7 +1094,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18">
+    <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1102,19 +1131,19 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -1122,22 +1151,22 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="7" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1247,7 +1276,7 @@
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="36">
+    <row r="17" spans="1:6" ht="27">
       <c r="A17" s="5" t="s">
         <v>65</v>
       </c>
@@ -1265,7 +1294,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="27">
+    <row r="18" spans="1:6" ht="18">
       <c r="A18" s="3" t="s">
         <v>70</v>
       </c>
@@ -1284,7 +1313,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="18">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>74</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -1319,7 +1348,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="27">
+    <row r="21" spans="1:6" ht="18">
       <c r="A21" s="5" t="s">
         <v>82</v>
       </c>
@@ -1354,10 +1383,10 @@
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" ht="18">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="12" t="s">
         <v>90</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -1422,10 +1451,10 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="12" t="s">
         <v>104</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -1502,10 +1531,10 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="12" t="s">
         <v>118</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -1517,11 +1546,11 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="27">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:6" ht="18">
+      <c r="A33" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="12" t="s">
         <v>121</v>
       </c>
       <c r="C33" s="6" t="s">
@@ -1613,7 +1642,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" ht="18">
+    <row r="39" spans="1:6">
       <c r="A39" s="5" t="s">
         <v>136</v>
       </c>
@@ -1727,7 +1756,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="18">
+    <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
         <v>158</v>
       </c>
@@ -1763,7 +1792,7 @@
       <c r="A48" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="13" t="s">
         <v>165</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -1779,7 +1808,7 @@
       <c r="A49" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="13" t="s">
         <v>168</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -1819,7 +1848,7 @@
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" ht="18">
+    <row r="52" spans="1:6">
       <c r="A52" s="3" t="s">
         <v>174</v>
       </c>
@@ -1867,5 +1896,72 @@
     <hyperlink ref="F10" r:id="rId1" display="https://classic.fec.gov/finance/disclosure/metadata/DataDictionaryPartyCodeDescriptions.shtml" xr:uid="{86860093-E6B0-47B4-9C0B-187E2599CD13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A28BE82-2B85-40B9-81E5-4B1C978572E6}">
+  <dimension ref="A12:AW12"/>
+  <sheetViews>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AF26" sqref="AF26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="12" spans="1:49">
+      <c r="A12" s="6"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="8"/>
+      <c r="AO12" s="6"/>
+      <c r="AP12" s="8"/>
+      <c r="AQ12" s="6"/>
+      <c r="AR12" s="8"/>
+      <c r="AS12" s="6"/>
+      <c r="AT12" s="8"/>
+      <c r="AU12" s="6"/>
+      <c r="AV12" s="8"/>
+      <c r="AW12" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>